--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/138.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/138.xlsx
@@ -479,13 +479,13 @@
         <v>0.002937358071467478</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.932286989365569</v>
+        <v>-1.918365549918795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1007518437079043</v>
+        <v>0.09395183808284019</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1124892332174285</v>
+        <v>-0.1128637245129518</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.002432239204907747</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.076300849638644</v>
+        <v>-2.059894593354798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04988140966373252</v>
+        <v>0.04350163938494783</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1062296173119631</v>
+        <v>-0.1050286834994462</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0001994892476840302</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.198716808827393</v>
+        <v>-2.182193447773611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02959117851035488</v>
+        <v>0.02204280021492091</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1196942261718533</v>
+        <v>-0.1186067376052115</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01018367016094426</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.252773468486897</v>
+        <v>-2.232108136117319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04468427557716232</v>
+        <v>0.03557694003196032</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1430932230146158</v>
+        <v>-0.1398673525552953</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02972715924880284</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.175153743322586</v>
+        <v>-2.153693074390528</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04666224833185627</v>
+        <v>0.03920779782064151</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1455792596930409</v>
+        <v>-0.1411445264524057</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.05553456043455031</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.891494274663306</v>
+        <v>-1.877825952297382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1599202485592334</v>
+        <v>0.1541516187985503</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1491491254140472</v>
+        <v>-0.1449742183817068</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08134497286607537</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.548654202739162</v>
+        <v>-1.534242387068282</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2214905210355964</v>
+        <v>0.216257401629098</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1315218079353516</v>
+        <v>-0.1267442992743841</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09917785391199613</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.149108585656397</v>
+        <v>-1.136268535569497</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2556186325030339</v>
+        <v>0.252681864444492</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1129491134076965</v>
+        <v>-0.1074817844613269</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.0986690190030015</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6782797093200574</v>
+        <v>-0.6635586638660663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2607309876155361</v>
+        <v>0.2590896910744071</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07313044202619955</v>
+        <v>-0.06982589179957857</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06172190596886711</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0977041460923788</v>
+        <v>-0.07784207925407829</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2305752895157587</v>
+        <v>0.2290718350475747</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.001084172006011949</v>
+        <v>0.004427071229083502</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.0283628419648257</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4824700893299996</v>
+        <v>0.5035007641849494</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06842055855416648</v>
+        <v>0.06712264735404662</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05632400177222226</v>
+        <v>0.05978774129547448</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1800503906189782</v>
       </c>
       <c r="E13" t="n">
-        <v>1.061973412007955</v>
+        <v>1.086767907359117</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06275813099742207</v>
+        <v>-0.06489895257280776</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1617396419379729</v>
+        <v>0.1647666782566735</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3839668982182359</v>
       </c>
       <c r="E14" t="n">
-        <v>1.669801450914091</v>
+        <v>1.697467452811382</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.26629597987637</v>
+        <v>-0.2686313661476383</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2626699254469183</v>
+        <v>0.2660000923419626</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6241583878691335</v>
       </c>
       <c r="E15" t="n">
-        <v>2.289023417982556</v>
+        <v>2.325966313373186</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5529044150077267</v>
+        <v>-0.5554239973233729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3756876169276566</v>
+        <v>0.380368758121698</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.876542683745868</v>
       </c>
       <c r="E16" t="n">
-        <v>2.811192367284164</v>
+        <v>2.850739623964508</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7972904813705223</v>
+        <v>-0.8095950211032376</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4853903895302693</v>
+        <v>0.4915274113797083</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.123949800368128</v>
       </c>
       <c r="E17" t="n">
-        <v>3.325328661273</v>
+        <v>3.368046285631081</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.096550501099664</v>
+        <v>-1.108664135660557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5944960497903456</v>
+        <v>0.6008087287946881</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.358666991927264</v>
       </c>
       <c r="E18" t="n">
-        <v>3.760665643508694</v>
+        <v>3.806882992709955</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.429415320355593</v>
+        <v>-1.444362036459981</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7477404495853255</v>
+        <v>0.7539390734231159</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.578430725223957</v>
       </c>
       <c r="E19" t="n">
-        <v>4.15772400407168</v>
+        <v>4.207824108301119</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.748575222004994</v>
+        <v>-1.767621214977805</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8969331463246679</v>
+        <v>0.9055318080254621</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.774161770615235</v>
       </c>
       <c r="E20" t="n">
-        <v>4.521294059957136</v>
+        <v>4.572524957121266</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.052032715831515</v>
+        <v>-2.073759310178635</v>
       </c>
       <c r="G20" t="n">
-        <v>1.039160548935548</v>
+        <v>1.046782117712191</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.935454664737308</v>
       </c>
       <c r="E21" t="n">
-        <v>4.742214648123404</v>
+        <v>4.793759044515382</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.340457494738228</v>
+        <v>-2.36585032227328</v>
       </c>
       <c r="G21" t="n">
-        <v>1.160837894184755</v>
+        <v>1.166744366018383</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.05135679150338</v>
       </c>
       <c r="E22" t="n">
-        <v>4.938992136221277</v>
+        <v>4.993639809016549</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.645623986300998</v>
+        <v>-2.668680817644105</v>
       </c>
       <c r="G22" t="n">
-        <v>1.306537575208361</v>
+        <v>1.317760115660525</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.118896686821723</v>
       </c>
       <c r="E23" t="n">
-        <v>5.063203701882372</v>
+        <v>5.116061867412066</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.95003234646257</v>
+        <v>-2.968680061233465</v>
       </c>
       <c r="G23" t="n">
-        <v>1.413893373046847</v>
+        <v>1.421976651775789</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.140562780175588</v>
       </c>
       <c r="E24" t="n">
-        <v>5.15603850824884</v>
+        <v>5.208024487210785</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.150648980260233</v>
+        <v>-3.167285176639213</v>
       </c>
       <c r="G24" t="n">
-        <v>1.52801868047656</v>
+        <v>1.536149533018289</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.124833151437556</v>
       </c>
       <c r="E25" t="n">
-        <v>5.204805325878908</v>
+        <v>5.253950294328559</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.299607772420042</v>
+        <v>-3.315840811231692</v>
       </c>
       <c r="G25" t="n">
-        <v>1.592596471809968</v>
+        <v>1.597169047123548</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.081558430415986</v>
       </c>
       <c r="E26" t="n">
-        <v>5.1976497364993</v>
+        <v>5.244491644473551</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.400843626188038</v>
+        <v>-3.40997169903625</v>
       </c>
       <c r="G26" t="n">
-        <v>1.64329429830262</v>
+        <v>1.646018813965654</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.020474756467979</v>
       </c>
       <c r="E27" t="n">
-        <v>5.116448557121124</v>
+        <v>5.160944710172601</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.50612965820998</v>
+        <v>-3.517141471068328</v>
       </c>
       <c r="G27" t="n">
-        <v>1.639989748075999</v>
+        <v>1.641713383908489</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.946811511528816</v>
       </c>
       <c r="E28" t="n">
-        <v>5.033812844311236</v>
+        <v>5.075613147971488</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.522069325176114</v>
+        <v>-3.533079003312093</v>
       </c>
       <c r="G28" t="n">
-        <v>1.635603198568827</v>
+        <v>1.636716303803892</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.863219746187772</v>
       </c>
       <c r="E29" t="n">
-        <v>4.859886644288407</v>
+        <v>4.896908829367014</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.500472034012465</v>
+        <v>-3.510625993438967</v>
       </c>
       <c r="G29" t="n">
-        <v>1.595716216071534</v>
+        <v>1.596419454611825</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.769616170906958</v>
       </c>
       <c r="E30" t="n">
-        <v>4.719924487070969</v>
+        <v>4.756052528437464</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.386625765292365</v>
+        <v>-3.398678102825245</v>
       </c>
       <c r="G30" t="n">
-        <v>1.545758223359778</v>
+        <v>1.543535672413707</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.66814528209521</v>
       </c>
       <c r="E31" t="n">
-        <v>4.524859656233406</v>
+        <v>4.553919936797744</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.321944897364586</v>
+        <v>-3.334108545420973</v>
       </c>
       <c r="G31" t="n">
-        <v>1.457911348287755</v>
+        <v>1.458560913808491</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.560966935356032</v>
       </c>
       <c r="E32" t="n">
-        <v>4.284139823058543</v>
+        <v>4.312518212306276</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.185172625286541</v>
+        <v>-3.199206290137838</v>
       </c>
       <c r="G32" t="n">
-        <v>1.405422184767493</v>
+        <v>1.407567885708293</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.45289620671215</v>
       </c>
       <c r="E33" t="n">
-        <v>4.027601087211542</v>
+        <v>4.054535184296737</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.063245212559867</v>
+        <v>-3.075269493741617</v>
       </c>
       <c r="G33" t="n">
-        <v>1.290396024498224</v>
+        <v>1.293970769584644</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.345786368565738</v>
       </c>
       <c r="E34" t="n">
-        <v>3.703884468186157</v>
+        <v>3.730845401781128</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.809277902286037</v>
+        <v>-2.826359340759043</v>
       </c>
       <c r="G34" t="n">
-        <v>1.155523655328249</v>
+        <v>1.163784420974125</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.242718098208723</v>
       </c>
       <c r="E35" t="n">
-        <v>3.450513660334185</v>
+        <v>3.47582902794329</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.697181191027188</v>
+        <v>-2.712626822245156</v>
       </c>
       <c r="G35" t="n">
-        <v>1.069937146284255</v>
+        <v>1.076534048323962</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.143938132289005</v>
       </c>
       <c r="E36" t="n">
-        <v>3.148466303112305</v>
+        <v>3.174417208066582</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.550519055175673</v>
+        <v>-2.568254328614153</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9903870221780355</v>
+        <v>0.9978176857828572</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.050223442929838</v>
       </c>
       <c r="E37" t="n">
-        <v>2.859872576178134</v>
+        <v>2.885573413654943</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.425704277965274</v>
+        <v>-2.444700867363269</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9014111839333522</v>
+        <v>0.9036319051173918</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9606280296522328</v>
       </c>
       <c r="E38" t="n">
-        <v>2.592665107853456</v>
+        <v>2.615645699111969</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.296114431776614</v>
+        <v>-2.314887790206919</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8189041643862586</v>
+        <v>0.823050405146792</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8739092298996878</v>
       </c>
       <c r="E39" t="n">
-        <v>2.329275742965221</v>
+        <v>2.348822480813643</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.181648178688599</v>
+        <v>-2.198310601656679</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7142143298258382</v>
+        <v>0.718981469835301</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7881153784020962</v>
       </c>
       <c r="E40" t="n">
-        <v>2.074897346155262</v>
+        <v>2.092621641021561</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.111723212782141</v>
+        <v>-2.12507925576157</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6332821254661082</v>
+        <v>0.6397454548776074</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7014335232441784</v>
       </c>
       <c r="E41" t="n">
-        <v>1.781244937128142</v>
+        <v>1.797219979493527</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.008311162039508</v>
+        <v>-2.023878167472148</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5498919407790834</v>
+        <v>0.5540570890805959</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6134633745205808</v>
       </c>
       <c r="E42" t="n">
-        <v>1.556508075287462</v>
+        <v>1.57320282405141</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.927293568785033</v>
+        <v>-1.938803991796622</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4852751145223639</v>
+        <v>0.4903344065359891</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5252731030296429</v>
       </c>
       <c r="E43" t="n">
-        <v>1.312097612097596</v>
+        <v>1.327544463156918</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.826482219808053</v>
+        <v>-1.838631839688875</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4177257896518398</v>
+        <v>0.4231211479583531</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4402082205515771</v>
       </c>
       <c r="E44" t="n">
-        <v>1.13175077711064</v>
+        <v>1.150028879951426</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.746378897648024</v>
+        <v>-1.756082125694409</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3806426125055579</v>
+        <v>0.3834226309501755</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3610616455876655</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9367451085787206</v>
+        <v>0.9557904916308555</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.685118464875449</v>
+        <v>-1.69329201186455</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3126492653823611</v>
+        <v>0.3162099822932162</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2910856499396051</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7693109042391972</v>
+        <v>0.7891522337744884</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.634649968557254</v>
+        <v>-1.640072163373544</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2262631503311499</v>
+        <v>0.2282777183264487</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2313619214765045</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6025787185986109</v>
+        <v>0.6189422804350846</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.570877272517154</v>
+        <v>-1.574186702109189</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1618146621812128</v>
+        <v>0.1648136421487831</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1827765998177524</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4558720585376935</v>
+        <v>0.4706211603428151</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.458021210015754</v>
+        <v>-1.463417788163621</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07582011620447393</v>
+        <v>0.08029876373383492</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1439132918866344</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3427714178449174</v>
+        <v>0.358135319692201</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.363442640434463</v>
+        <v>-1.367425422453628</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05954499286612875</v>
+        <v>0.06310631969766066</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1139059504695539</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2545116264747362</v>
+        <v>0.2672693372702754</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.262016491415321</v>
+        <v>-1.263541903027868</v>
       </c>
       <c r="G50" t="n">
-        <v>0.008071957193329897</v>
+        <v>0.01159485902222668</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.09030717287892537</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1185828746926338</v>
+        <v>0.1324000177036843</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.160973982501854</v>
+        <v>-1.166480956292212</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.02623974039780885</v>
+        <v>-0.02262535046739986</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07193090995915362</v>
       </c>
       <c r="E52" t="n">
-        <v>0.05495777945630661</v>
+        <v>0.06853949308613236</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.099436645742036</v>
+        <v>-1.103217544017197</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07444299132256137</v>
+        <v>-0.06826571470845703</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.05612173290401758</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.06247268812070398</v>
+        <v>-0.04947588841987961</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.024984848572754</v>
+        <v>-1.02950558062881</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.131099742827042</v>
+        <v>-0.1237520284342581</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.04134023905651693</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1914068695818597</v>
+        <v>-0.1762088661586516</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9575398201379535</v>
+        <v>-0.9606278485243289</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2020487655497598</v>
+        <v>-0.1951865480156674</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.02541483162783119</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2468596376704396</v>
+        <v>-0.2364684191006829</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9283886613927801</v>
+        <v>-0.9340664129726277</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2099301605346982</v>
+        <v>-0.2018346833922212</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.007372142197201653</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3344180202623606</v>
+        <v>-0.3206197847922893</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.876739358644401</v>
+        <v>-0.8815931073899621</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2713650306208231</v>
+        <v>-0.2650682095540761</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.01390415567451216</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4120237172511067</v>
+        <v>-0.3981663194753908</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8569913469726524</v>
+        <v>-0.8630509088961443</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2950976540737668</v>
+        <v>-0.2886514024412166</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03789799281605351</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5068895594711461</v>
+        <v>-0.4922813493423534</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8010988260761371</v>
+        <v>-0.8074914046891335</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3334952102784408</v>
+        <v>-0.3258602232469086</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06406739151635527</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.593922800360387</v>
+        <v>-0.5797561728015599</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.812341493910634</v>
+        <v>-0.8161705759192583</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3434283784199597</v>
+        <v>-0.3381434157559377</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09139584188082121</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7558658888471477</v>
+        <v>-0.7362569390896976</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8447484092282886</v>
+        <v>-0.8485610233786407</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3759950929549222</v>
+        <v>-0.3711559823056031</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1199637516200217</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8948631515539696</v>
+        <v>-0.8730090837854099</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8506896465404915</v>
+        <v>-0.8548682130968924</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4157289853623511</v>
+        <v>-0.4118895347022222</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1500311423068151</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.977806264384938</v>
+        <v>-0.9536936603503803</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8285800220083743</v>
+        <v>-0.8361101026835058</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4483566919649885</v>
+        <v>-0.4445605456729086</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1818611193451797</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.080991424635821</v>
+        <v>-1.055719361394765</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8730865437113569</v>
+        <v>-0.8792558913566635</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4762727613397472</v>
+        <v>-0.4742911290609927</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2149603284714042</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.165494714557911</v>
+        <v>-1.136234380011599</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8967703735101608</v>
+        <v>-0.9027579647937964</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5013624582984553</v>
+        <v>-0.4999401232802788</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2483290247110941</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.245103391049098</v>
+        <v>-1.212947153129587</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9295279932169455</v>
+        <v>-0.9366219806082021</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5202687794362916</v>
+        <v>-0.517432648289413</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2820516723212506</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.296693531491832</v>
+        <v>-1.263177170463173</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9437263366509635</v>
+        <v>-0.9550525636181749</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5602344417008848</v>
+        <v>-0.5549195929237022</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3159209544546678</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.350680660194187</v>
+        <v>-1.312400208759448</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9965820624979501</v>
+        <v>-1.008857935958858</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5950182178958265</v>
+        <v>-0.5909469973785333</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3502162076782485</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.401970109743284</v>
+        <v>-1.363682339260425</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.018134829452196</v>
+        <v>-1.029380546890077</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6151480399112195</v>
+        <v>-0.6097087673159802</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3847957066004736</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.410809690111394</v>
+        <v>-1.372015685466834</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.084414299473731</v>
+        <v>-1.094340758487806</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6139873608633679</v>
+        <v>-0.6097965958934319</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4195995007373404</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.422134697237252</v>
+        <v>-1.380590560261235</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.082974276755929</v>
+        <v>-1.092768992903826</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6359725615774284</v>
+        <v>-0.6313115477657197</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4534106924430257</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.425277618484534</v>
+        <v>-1.383018654475368</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.125142972504936</v>
+        <v>-1.134098437801628</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6333858879873399</v>
+        <v>-0.6282229094586675</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4856519024688911</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.420068895905106</v>
+        <v>-1.378491213291868</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.220909057643856</v>
+        <v>-1.225195580160041</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6496969966456132</v>
+        <v>-0.6451103931564678</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.51521280780075</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.338583493491565</v>
+        <v>-1.2974760597201</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.277719509158877</v>
+        <v>-1.28488912671405</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6661117918189337</v>
+        <v>-0.6598058219420355</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.541773621163183</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.274432036711205</v>
+        <v>-1.234512728418044</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.328042844356006</v>
+        <v>-1.333669362599006</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6804168713713826</v>
+        <v>-0.6745384558888848</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5649209715953798</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.150382709950124</v>
+        <v>-1.110323119901312</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.358533998827995</v>
+        <v>-1.366902110512978</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6774099624350147</v>
+        <v>-0.6714815334570235</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5845973343172052</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.000387357600181</v>
+        <v>-0.9619208803590348</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.393173223822547</v>
+        <v>-1.397750678501541</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6277898657781764</v>
+        <v>-0.6232349781642219</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6000550472368499</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.876289237184961</v>
+        <v>-0.8395110203770531</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.43393605241165</v>
+        <v>-1.440231653637043</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6078924235406246</v>
+        <v>-0.6027093176296195</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6116979300311307</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7019434117365286</v>
+        <v>-0.665612266784677</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.493841851361167</v>
+        <v>-1.497935029022823</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5498413933690979</v>
+        <v>-0.5480451769760749</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6196051944809036</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5015027400541073</v>
+        <v>-0.4651679355781952</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.499759911687654</v>
+        <v>-1.505965244652888</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4967136429002816</v>
+        <v>-0.4941843018538074</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6246218055883505</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2941943615515029</v>
+        <v>-0.2590684198569055</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.600140656666849</v>
+        <v>-1.60219242982343</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4549999479761284</v>
+        <v>-0.4557904051731939</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6264790992393011</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.05113426273995758</v>
+        <v>-0.02168485278385435</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.597883950162881</v>
+        <v>-1.59959477766116</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4288782652323626</v>
+        <v>-0.4291033259620826</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6247805845336252</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1661115533489029</v>
+        <v>0.1939904175623799</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.636836534183396</v>
+        <v>-1.636133905563782</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3206899256701153</v>
+        <v>-0.3245116886306186</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.619207820708874</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4102432827894946</v>
+        <v>0.4322498307272413</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.663415047514046</v>
+        <v>-1.656789479202532</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2802235185299119</v>
+        <v>-0.2862745415639294</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.610127494501463</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6739650544465571</v>
+        <v>0.6950762388308377</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.647131995206903</v>
+        <v>-1.63738912231653</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1916532775352659</v>
+        <v>-0.1992101947201743</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5981083004390257</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8766752409671579</v>
+        <v>0.8937347222958011</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.62892098364056</v>
+        <v>-1.612554982121379</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1395934981714354</v>
+        <v>-0.148353178930891</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.583920213221892</v>
       </c>
       <c r="E86" t="n">
-        <v>1.102788083854582</v>
+        <v>1.116067886749417</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.562304227484783</v>
+        <v>-1.54242203326415</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.08961171855328556</v>
+        <v>-0.09634402298323064</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5669336442446985</v>
       </c>
       <c r="E87" t="n">
-        <v>1.283868653415666</v>
+        <v>1.296656860245043</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.443615493551641</v>
+        <v>-1.420268339966403</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01382663478463238</v>
+        <v>-0.02184526192183909</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5468189991835334</v>
       </c>
       <c r="E88" t="n">
-        <v>1.44448699419253</v>
+        <v>1.455831518780044</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.373745420506091</v>
+        <v>-1.347083957963403</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01517936283947502</v>
+        <v>0.004661280768954757</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5226200362804143</v>
       </c>
       <c r="E89" t="n">
-        <v>1.533025519311985</v>
+        <v>1.544773811387506</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.206768656674129</v>
+        <v>-1.17765775269362</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04513927640201637</v>
+        <v>0.03434977963034323</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4950067552195316</v>
       </c>
       <c r="E90" t="n">
-        <v>1.681836405707683</v>
+        <v>1.69242828818009</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.092853771877894</v>
+        <v>-1.058283467919814</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09612864497815402</v>
+        <v>0.08447367076617537</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4652036122038367</v>
       </c>
       <c r="E91" t="n">
-        <v>1.745987862488044</v>
+        <v>1.752841541132662</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8650917034805433</v>
+        <v>-0.8325804917271649</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1036526264465181</v>
+        <v>0.09123647122995784</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4354980881527015</v>
       </c>
       <c r="E92" t="n">
-        <v>1.815944544269693</v>
+        <v>1.822777485611301</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6727818843398504</v>
+        <v>-0.64402778395524</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1411840952902098</v>
+        <v>0.1276603241246751</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4081214220166357</v>
       </c>
       <c r="E93" t="n">
-        <v>1.859239153587977</v>
+        <v>1.86590436674348</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4535727335925379</v>
+        <v>-0.4262123019542968</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1121634595698605</v>
+        <v>0.09989307539504302</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3857855728967575</v>
       </c>
       <c r="E94" t="n">
-        <v>1.877113488940755</v>
+        <v>1.878274777909284</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2981557963469815</v>
+        <v>-0.2755649444009102</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04628653719497947</v>
+        <v>0.03409239310475554</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3694352789382517</v>
       </c>
       <c r="E95" t="n">
-        <v>1.852168343182437</v>
+        <v>1.852542224557283</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1423210634378527</v>
+        <v>-0.1237319010519254</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02639214456081131</v>
+        <v>0.01647666411891813</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3573894231188947</v>
       </c>
       <c r="E96" t="n">
-        <v>1.830641192896614</v>
+        <v>1.828139298280593</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01577228174345868</v>
+        <v>-0.003096300318603792</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01020919525083964</v>
+        <v>-0.01837908271587988</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.346097664362271</v>
       </c>
       <c r="E97" t="n">
-        <v>1.703875889361974</v>
+        <v>1.699979106158231</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07670572102711211</v>
+        <v>0.08583623355803054</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02527911533193066</v>
+        <v>-0.0331507515860411</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.330732882451552</v>
       </c>
       <c r="E98" t="n">
-        <v>1.571867097769332</v>
+        <v>1.5668578192512</v>
       </c>
       <c r="F98" t="n">
-        <v>0.122821213475356</v>
+        <v>0.1270497935272503</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05197778303590015</v>
+        <v>-0.05864848547749366</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3090323114017487</v>
       </c>
       <c r="E99" t="n">
-        <v>1.420099925853435</v>
+        <v>1.414819232634151</v>
       </c>
       <c r="F99" t="n">
-        <v>0.164830719927732</v>
+        <v>0.1688061828987759</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.07090484147674588</v>
+        <v>-0.07690890061865377</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2798213040752257</v>
       </c>
       <c r="E100" t="n">
-        <v>1.245358871806471</v>
+        <v>1.239937896831534</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2088633332648813</v>
+        <v>0.212110550947888</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08957207370929694</v>
+        <v>-0.09827259216310799</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2484098901894306</v>
       </c>
       <c r="E101" t="n">
-        <v>1.118685056373343</v>
+        <v>1.114921845797808</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2180639866736258</v>
+        <v>0.2197973812369437</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1202968278004804</v>
+        <v>-0.1256708388833075</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2159079119050716</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9496943344667587</v>
+        <v>0.9444319388677764</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2128284275844204</v>
+        <v>0.2165275964888974</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1266570806176091</v>
+        <v>-0.1345104192514171</v>
       </c>
     </row>
   </sheetData>
